--- a/Documentation/ProjectDocumentation/Website_template.xlsx
+++ b/Documentation/ProjectDocumentation/Website_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive\Desktop\Git\SS24\EazyBooks\p07\Documentation\ProjectDocumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandr\OneDrive\Dokumente\GitHub\EazyBooks\Documentation\ProjectDocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCCC398-E5B1-4F00-B4D0-A413059311CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC551B00-12C3-409A-921D-41560D914DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -145,13 +145,13 @@
 Mit einem klaren Fokus auf eine ansprechende Benutzererfahrung und präzise Finanzverwaltungsfunktionen bietet "EazyBooks" eine umfassende Lösung für Einzelpersonen und Kleinvereine, die ihre finanzielle Gesundheit im Blick behalten möchten.</t>
   </si>
   <si>
-    <t>Sommersemester 2024</t>
-  </si>
-  <si>
     <t>EazyBooks_1_Logo.jpg</t>
   </si>
   <si>
     <t>FH-Prof. DI Dr. Marc Kurz</t>
+  </si>
+  <si>
+    <t>Wintersemester 2025</t>
   </si>
 </sst>
 </file>
@@ -610,34 +610,34 @@
   <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="39.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="3.5546875" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="39.6640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.5546875" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.42578125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="39.28515625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,18 +699,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>33</v>
@@ -725,7 +725,7 @@
         <v>36</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>37</v>
@@ -737,10 +737,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>27</v>
       </c>
@@ -759,7 +759,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
     </row>
-    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
     </row>
-    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,7 +822,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="N10" s="12"/>
       <c r="O10" s="13"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
     </row>
-    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -906,7 +906,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>32</v>
       </c>
@@ -951,7 +951,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
@@ -965,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
